--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A523594-9217-42BF-8B96-2D76E30348E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E5F43E-10F7-4A1C-8546-5F01022B9478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="61">
   <si>
     <t>ASTT4</t>
   </si>
@@ -97,19 +97,10 @@
     <t>tpsfacthospi</t>
   </si>
   <si>
-    <t>tpsfactoptique</t>
-  </si>
-  <si>
     <t>tpsfactse</t>
   </si>
   <si>
-    <t>tpsfacttiers</t>
-  </si>
-  <si>
     <t>tpspecaudio</t>
-  </si>
-  <si>
-    <t>tpspecdentaire</t>
   </si>
   <si>
     <t>tpspechospi</t>
@@ -590,8 +581,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +595,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -622,15 +613,15 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -648,15 +639,15 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -674,15 +665,15 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -700,15 +691,15 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -726,15 +717,15 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -752,15 +743,15 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -778,15 +769,15 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -804,15 +795,15 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -830,15 +821,15 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -856,15 +847,15 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -882,15 +873,15 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -908,50 +899,50 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -960,18 +951,18 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -986,10 +977,10 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1058,7 +1049,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,10 +1072,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,10 +1098,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1133,10 +1124,10 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,10 +1150,10 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1210,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1236,10 +1227,10 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1262,10 +1253,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1288,10 +1279,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1317,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1343,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1388,10 +1379,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1417,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1469,7 +1460,7 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1480,10 +1471,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,257 +1484,394 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E5F43E-10F7-4A1C-8546-5F01022B9478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA943EF8-F63C-4D88-8C55-E86938B9EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -259,11 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +582,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,10 +946,10 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
@@ -971,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -992,6 +993,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4563AC5-8C51-4242-A748-7F36FFBB2851}">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1163,6 +1165,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
+  <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1344,6 +1347,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A09FF-1AE8-496D-85EF-D27C30AFBB07}">
+  <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1471,10 +1475,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,6 +1486,7 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
@@ -1873,6 +1878,9 @@
       <c r="H15" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA943EF8-F63C-4D88-8C55-E86938B9EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203E134-762B-4F82-AD00-4ACA40B4A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-17730" yWindow="-255" windowWidth="4920" windowHeight="7095" activeTab="6" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Feuil4" sheetId="4" r:id="rId3"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId6"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId7"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="68">
   <si>
     <t>ASTT4</t>
   </si>
@@ -212,6 +215,27 @@
   </si>
   <si>
     <t>grssdp</t>
+  </si>
+  <si>
+    <t>PECO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Fact Tiers</t>
+  </si>
+  <si>
+    <t>Fact Audio</t>
+  </si>
+  <si>
+    <t>Fact Hospi</t>
+  </si>
+  <si>
+    <t>Tri TP</t>
+  </si>
+  <si>
+    <t>Tri Nument</t>
   </si>
 </sst>
 </file>
@@ -582,8 +606,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>41</v>
@@ -715,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -923,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
@@ -997,10 +1021,14 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1169,7 +1197,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,10 +1232,10 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,10 +1258,10 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1256,10 +1284,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,10 +1310,10 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1308,10 +1336,10 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1506,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>41</v>
@@ -1610,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
@@ -1818,7 +1846,7 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
@@ -1881,6 +1909,321 @@
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA76978-12DB-4D9B-A0FD-9A28F7C3902C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C7A07-C863-4384-A6C9-CCB0C39BC311}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BEE07-4E04-4B80-A2AC-E92A4F0230F7}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203E134-762B-4F82-AD00-4ACA40B4A4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938FC208-A9B8-4CB7-9028-46665BA06F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17730" yWindow="-255" windowWidth="4920" windowHeight="7095" activeTab="6" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28800" yWindow="-1125" windowWidth="29040" windowHeight="15600" firstSheet="2" activeTab="7" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
     <sheet name="Feuil7" sheetId="7" r:id="rId6"/>
     <sheet name="Feuil8" sheetId="8" r:id="rId7"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId8"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId8"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId9"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="68">
   <si>
     <t>ASTT4</t>
   </si>
@@ -1015,6 +1017,203 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BEE07-4E04-4B80-A2AC-E92A4F0230F7}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4563AC5-8C51-4242-A748-7F36FFBB2851}">
   <sheetPr codeName="Feuil3"/>
@@ -1196,8 +1395,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,8 +1704,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C7A07-C863-4384-A6C9-CCB0C39BC311}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,195 +2233,211 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BEE07-4E04-4B80-A2AC-E92A4F0230F7}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842CF1A-85E2-4D95-AB03-0B0C4FE49A5E}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD5A80-E399-4395-834F-B1481CB95257}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938FC208-A9B8-4CB7-9028-46665BA06F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21892477-E1C7-4B90-A6C4-492E3E835253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-1125" windowWidth="29040" windowHeight="15600" firstSheet="2" activeTab="7" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Feuil4" sheetId="4" r:id="rId3"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
-    <sheet name="Feuil7" sheetId="7" r:id="rId6"/>
-    <sheet name="Feuil8" sheetId="8" r:id="rId7"/>
-    <sheet name="Feuil9" sheetId="9" r:id="rId8"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId9"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId10"/>
+    <sheet name="Feuil11" sheetId="11" r:id="rId6"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId9"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId10"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="68">
   <si>
     <t>ASTT4</t>
   </si>
@@ -1018,11 +1019,85 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD5A80-E399-4395-834F-B1481CB95257}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BEE07-4E04-4B80-A2AC-E92A4F0230F7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1780,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+      <selection activeCell="C6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,6 +2190,154 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755760C3-02B6-4A36-AD3F-35A6369827D2}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA76978-12DB-4D9B-A0FD-9A28F7C3902C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2173,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C7A07-C863-4384-A6C9-CCB0C39BC311}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2232,11 +2455,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842CF1A-85E2-4D95-AB03-0B0C4FE49A5E}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2369,78 +2592,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD5A80-E399-4395-834F-B1481CB95257}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21892477-E1C7-4B90-A6C4-492E3E835253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1C383F-BEEA-453D-9CCF-5AA02A5D5B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
     <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
     <sheet name="Feuil9" sheetId="9" r:id="rId9"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId10"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId11"/>
+    <sheet name="Feuil12" sheetId="12" r:id="rId10"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId11"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="68">
   <si>
     <t>ASTT4</t>
   </si>
@@ -1019,11 +1020,69 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91958EF0-E4C6-45C2-97BD-B0AB9401B74F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD5A80-E399-4395-834F-B1481CB95257}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BEE07-4E04-4B80-A2AC-E92A4F0230F7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2193,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755760C3-02B6-4A36-AD3F-35A6369827D2}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2460,7 +2519,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1C383F-BEEA-453D-9CCF-5AA02A5D5B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ABCDB-06F2-4D74-90E6-D90FB8C1555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId2"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
-    <sheet name="Feuil11" sheetId="11" r:id="rId6"/>
-    <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
-    <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
-    <sheet name="Feuil9" sheetId="9" r:id="rId9"/>
-    <sheet name="Feuil12" sheetId="12" r:id="rId10"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId11"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId12"/>
+    <sheet name="Feuil16" sheetId="16" r:id="rId2"/>
+    <sheet name="Feuil15" sheetId="15" r:id="rId3"/>
+    <sheet name="Feuil14" sheetId="14" r:id="rId4"/>
+    <sheet name="Feuil13" sheetId="13" r:id="rId5"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId6"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId7"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId8"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId9"/>
+    <sheet name="Feuil20" sheetId="20" r:id="rId10"/>
+    <sheet name="Feuil19" sheetId="19" r:id="rId11"/>
+    <sheet name="Feuil18" sheetId="18" r:id="rId12"/>
+    <sheet name="Feuil17" sheetId="17" r:id="rId13"/>
+    <sheet name="Feuil11" sheetId="11" r:id="rId14"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId15"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId16"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId17"/>
+    <sheet name="Feuil12" sheetId="12" r:id="rId18"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId19"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="68">
   <si>
     <t>ASTT4</t>
   </si>
@@ -611,7 +619,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G15"/>
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,11 +1028,788 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B68C89-F4BD-494A-8FBB-F28246E0670B}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A82F3-9EBB-4E18-B936-8FA59FC48E03}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD00D1F-2C73-4B1E-8143-3035131519CF}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B0EC52-B085-4B2B-8B51-617284FBA07C}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755760C3-02B6-4A36-AD3F-35A6369827D2}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA76978-12DB-4D9B-A0FD-9A28F7C3902C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C7A07-C863-4384-A6C9-CCB0C39BC311}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842CF1A-85E2-4D95-AB03-0B0C4FE49A5E}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91958EF0-E4C6-45C2-97BD-B0AB9401B74F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD5A80-E399-4395-834F-B1481CB95257}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1151,7 +1936,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32756CB7-C673-46E9-B298-F3D9E987524D}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BEE07-4E04-4B80-A2AC-E92A4F0230F7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -1348,7 +2226,286 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87DF9A2-9621-4185-A564-C4355C2B998C}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF587CB1-A178-4B5A-80EA-FC9AAE5A2BFF}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE1CB10-12A5-4CE8-B04F-3449BE6FB8DE}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4563AC5-8C51-4242-A748-7F36FFBB2851}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:H6"/>
@@ -1524,12 +2681,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1706,7 +2863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A09FF-1AE8-496D-85EF-D27C30AFBB07}">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:H4"/>
@@ -1833,13 +2990,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:XFD8"/>
+      <selection activeCell="C13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,409 +3403,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755760C3-02B6-4A36-AD3F-35A6369827D2}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA76978-12DB-4D9B-A0FD-9A28F7C3902C}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C7A07-C863-4384-A6C9-CCB0C39BC311}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842CF1A-85E2-4D95-AB03-0B0C4FE49A5E}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ABCDB-06F2-4D74-90E6-D90FB8C1555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997A8962-0778-4FB9-B4EE-FE747EFE8BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="18" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,22 @@
     <sheet name="Feuil13" sheetId="13" r:id="rId5"/>
     <sheet name="Feuil5" sheetId="5" r:id="rId6"/>
     <sheet name="Feuil4" sheetId="4" r:id="rId7"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId8"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId9"/>
-    <sheet name="Feuil20" sheetId="20" r:id="rId10"/>
-    <sheet name="Feuil19" sheetId="19" r:id="rId11"/>
-    <sheet name="Feuil18" sheetId="18" r:id="rId12"/>
-    <sheet name="Feuil17" sheetId="17" r:id="rId13"/>
-    <sheet name="Feuil11" sheetId="11" r:id="rId14"/>
-    <sheet name="Feuil7" sheetId="7" r:id="rId15"/>
-    <sheet name="Feuil8" sheetId="8" r:id="rId16"/>
-    <sheet name="Feuil9" sheetId="9" r:id="rId17"/>
-    <sheet name="Feuil12" sheetId="12" r:id="rId18"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId19"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId20"/>
+    <sheet name="Feuil21" sheetId="21" r:id="rId8"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId9"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId10"/>
+    <sheet name="Feuil20" sheetId="20" r:id="rId11"/>
+    <sheet name="Feuil19" sheetId="19" r:id="rId12"/>
+    <sheet name="Feuil18" sheetId="18" r:id="rId13"/>
+    <sheet name="Feuil17" sheetId="17" r:id="rId14"/>
+    <sheet name="Feuil11" sheetId="11" r:id="rId15"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId16"/>
+    <sheet name="Feuil22" sheetId="22" r:id="rId17"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId18"/>
+    <sheet name="Feuil23" sheetId="23" r:id="rId19"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId20"/>
+    <sheet name="Feuil12" sheetId="12" r:id="rId21"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId22"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId23"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="68">
   <si>
     <t>ASTT4</t>
   </si>
@@ -1028,6 +1031,421 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="A13:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B68C89-F4BD-494A-8FBB-F28246E0670B}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1120,7 +1538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A82F3-9EBB-4E18-B936-8FA59FC48E03}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1213,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD00D1F-2C73-4B1E-8143-3035131519CF}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1306,12 +1724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B0EC52-B085-4B2B-8B51-617284FBA07C}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755760C3-02B6-4A36-AD3F-35A6369827D2}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1547,12 +1965,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA76978-12DB-4D9B-A0FD-9A28F7C3902C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,12 +2024,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12383B55-1970-4F1A-9153-7A091C0579BF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C7A07-C863-4384-A6C9-CCB0C39BC311}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,270 +2114,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842CF1A-85E2-4D95-AB03-0B0C4FE49A5E}">
-  <dimension ref="A1:B15"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5378EC-FF46-4880-AFA8-E14FECC00AD3}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91958EF0-E4C6-45C2-97BD-B0AB9401B74F}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD5A80-E399-4395-834F-B1481CB95257}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2030,6 +2239,277 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842CF1A-85E2-4D95-AB03-0B0C4FE49A5E}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91958EF0-E4C6-45C2-97BD-B0AB9401B74F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD5A80-E399-4395-834F-B1481CB95257}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BEE07-4E04-4B80-A2AC-E92A4F0230F7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2687,7 +3167,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,6 +3344,73 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993A905D-4C89-495E-B08B-17B22CF0CD36}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A09FF-1AE8-496D-85EF-D27C30AFBB07}">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:H4"/>
@@ -2988,419 +3535,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
-  <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A13:XFD15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/grs16h.xlsx
+++ b/grs16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997A8962-0778-4FB9-B4EE-FE747EFE8BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F65994-4C78-4CFC-BFE3-2177BF477B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="18" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="15" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,12 @@
     <sheet name="Feuil8" sheetId="8" r:id="rId18"/>
     <sheet name="Feuil23" sheetId="23" r:id="rId19"/>
     <sheet name="Feuil9" sheetId="9" r:id="rId20"/>
-    <sheet name="Feuil12" sheetId="12" r:id="rId21"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId22"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId23"/>
+    <sheet name="Feuil24" sheetId="24" r:id="rId21"/>
+    <sheet name="Feuil12" sheetId="12" r:id="rId22"/>
+    <sheet name="Feuil25" sheetId="25" r:id="rId23"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId24"/>
+    <sheet name="Feuil26" sheetId="26" r:id="rId25"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId26"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="68">
   <si>
     <t>ASTT4</t>
   </si>
@@ -1969,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA76978-12DB-4D9B-A0FD-9A28F7C3902C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2063,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5378EC-FF46-4880-AFA8-E14FECC00AD3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2243,7 +2246,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,11 +2381,42 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018A143-7B9E-4608-A6C6-F9950B14E557}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91958EF0-E4C6-45C2-97BD-B0AB9401B74F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,12 +2469,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A329C072-7B36-48C3-A523-C535C2428165}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD5A80-E399-4395-834F-B1481CB95257}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,22 +2537,6 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
@@ -2509,7 +2558,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0678E84-5937-460F-97D1-E16CD9ECDE0B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BEE07-4E04-4B80-A2AC-E92A4F0230F7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
